--- a/lichlamviec.xlsx
+++ b/lichlamviec.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -619,7 +619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,10 +1090,10 @@
         <v>19</v>
       </c>
       <c r="C34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>29</v>
       </c>
       <c r="E34">
         <v>7</v>
